--- a/out/DP1 Mathematics-Pure.xlsx
+++ b/out/DP1 Mathematics-Pure.xlsx
@@ -19,11 +19,11 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-4:8.833333~9.500000</t>
+1:9.666667~10.333333</t>
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-4:10.500000~11.166667</t>
+5:10.500000~11.166667</t>
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
@@ -31,7 +31,7 @@
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-1:17.000000~17.666667</t>
+3:17.833333~18.500000</t>
   </si>
 </sst>
 </file>
@@ -445,14 +445,14 @@
       <c r="B3" s="1" t="s"/>
       <c r="C3" s="1" t="s"/>
       <c r="D3" s="1" t="s"/>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E3" s="1" t="s"/>
       <c r="F3" s="1" t="s"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s"/>
-      <c r="B4" s="1" t="s"/>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C4" s="1" t="s"/>
       <c r="D4" s="1" t="s"/>
       <c r="E4" s="1" t="s"/>
@@ -463,10 +463,10 @@
       <c r="B5" s="1" t="s"/>
       <c r="C5" s="1" t="s"/>
       <c r="D5" s="1" t="s"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1" t="s"/>
+      <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s"/>
@@ -512,9 +512,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s"/>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B11" s="1" t="s"/>
       <c r="C11" s="1" t="s"/>
       <c r="D11" s="1" t="s"/>
       <c r="E11" s="1" t="s"/>
@@ -524,7 +522,9 @@
       <c r="A12" s="1" t="s"/>
       <c r="B12" s="1" t="s"/>
       <c r="C12" s="1" t="s"/>
-      <c r="D12" s="1" t="s"/>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="1" t="s"/>
       <c r="F12" s="1" t="s"/>
     </row>

--- a/out/DP1 Mathematics-Pure.xlsx
+++ b/out/DP1 Mathematics-Pure.xlsx
@@ -19,19 +19,19 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-1:9.666667~10.333333</t>
+3:8.000000~8.666667</t>
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-5:10.500000~11.166667</t>
+3:11.333333~12.000000</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics-Pure, [教师9]
+4:15.333333~16.000000</t>
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
 1:16.166667~16.000000</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Pure, [教师9]
-3:17.833333~18.500000</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -411,34 +411,33 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s"/>
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
       <c r="B1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s"/>
       <c r="B2" s="1" t="s"/>
-      <c r="C2" s="1" t="s"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" s="1" t="s"/>
       <c r="E2" s="1" t="s"/>
-      <c r="F2" s="1" t="s"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s"/>
@@ -446,17 +445,13 @@
       <c r="C3" s="1" t="s"/>
       <c r="D3" s="1" t="s"/>
       <c r="E3" s="1" t="s"/>
-      <c r="F3" s="1" t="s"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s"/>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B4" s="1" t="s"/>
       <c r="C4" s="1" t="s"/>
       <c r="D4" s="1" t="s"/>
       <c r="E4" s="1" t="s"/>
-      <c r="F4" s="1" t="s"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s"/>
@@ -464,17 +459,15 @@
       <c r="C5" s="1" t="s"/>
       <c r="D5" s="1" t="s"/>
       <c r="E5" s="1" t="s"/>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s"/>
       <c r="B6" s="1" t="s"/>
-      <c r="C6" s="1" t="s"/>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D6" s="1" t="s"/>
       <c r="E6" s="1" t="s"/>
-      <c r="F6" s="1" t="s"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s"/>
@@ -482,25 +475,24 @@
       <c r="C7" s="1" t="s"/>
       <c r="D7" s="1" t="s"/>
       <c r="E7" s="1" t="s"/>
-      <c r="F7" s="1" t="s"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s"/>
       <c r="B8" s="1" t="s"/>
       <c r="C8" s="1" t="s"/>
-      <c r="D8" s="1" t="s"/>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E8" s="1" t="s"/>
-      <c r="F8" s="1" t="s"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s"/>
       <c r="C9" s="1" t="s"/>
       <c r="D9" s="1" t="s"/>
       <c r="E9" s="1" t="s"/>
-      <c r="F9" s="1" t="s"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s"/>
@@ -508,7 +500,6 @@
       <c r="C10" s="1" t="s"/>
       <c r="D10" s="1" t="s"/>
       <c r="E10" s="1" t="s"/>
-      <c r="F10" s="1" t="s"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s"/>
@@ -516,17 +507,13 @@
       <c r="C11" s="1" t="s"/>
       <c r="D11" s="1" t="s"/>
       <c r="E11" s="1" t="s"/>
-      <c r="F11" s="1" t="s"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s"/>
       <c r="B12" s="1" t="s"/>
       <c r="C12" s="1" t="s"/>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D12" s="1" t="s"/>
       <c r="E12" s="1" t="s"/>
-      <c r="F12" s="1" t="s"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/out/DP1 Mathematics-Pure.xlsx
+++ b/out/DP1 Mathematics-Pure.xlsx
@@ -19,7 +19,11 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-3:8.000000~8.666667</t>
+5:8.000000~8.666667</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics-Pure, [教师9]
+3:9.666667~10.333333</t>
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
@@ -28,10 +32,6 @@
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
 4:15.333333~16.000000</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Pure, [教师9]
-1:16.166667~16.000000</t>
   </si>
 </sst>
 </file>
@@ -433,11 +433,11 @@
     <row r="2">
       <c r="A2" s="1" t="s"/>
       <c r="B2" s="1" t="s"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1" t="s"/>
+      <c r="D2" s="1" t="s"/>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s"/>
-      <c r="E2" s="1" t="s"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s"/>
@@ -449,7 +449,9 @@
     <row r="4">
       <c r="A4" s="1" t="s"/>
       <c r="B4" s="1" t="s"/>
-      <c r="C4" s="1" t="s"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D4" s="1" t="s"/>
       <c r="E4" s="1" t="s"/>
     </row>
@@ -464,7 +466,7 @@
       <c r="A6" s="1" t="s"/>
       <c r="B6" s="1" t="s"/>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s"/>
       <c r="E6" s="1" t="s"/>
@@ -481,14 +483,12 @@
       <c r="B8" s="1" t="s"/>
       <c r="C8" s="1" t="s"/>
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1" t="s"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="1" t="s"/>
       <c r="B9" s="1" t="s"/>
       <c r="C9" s="1" t="s"/>
       <c r="D9" s="1" t="s"/>

--- a/out/DP1 Mathematics-Pure.xlsx
+++ b/out/DP1 Mathematics-Pure.xlsx
@@ -16,44 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>DP1 Mathematics-Pure, [教师9]
-5:8.000000~8.666667</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Pure, [教师9]
-3:9.666667~10.333333</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Pure, [教师9]
-3:11.333333~12.000000</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Pure, [教师9]
-4:15.333333~16.000000</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
-    <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="0"/>
-      <charset val="0"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-  </fills>
   <borders count="1">
     <border>
       <left style="none"/>
@@ -62,10 +29,7 @@
       <bottom style="none"/>
     </border>
   </borders>
-  <cellXfs count="2">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="1">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -398,123 +362,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.5"/>
-  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s"/>
-      <c r="B2" s="1" t="s"/>
-      <c r="C2" s="1" t="s"/>
-      <c r="D2" s="1" t="s"/>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s"/>
-      <c r="B3" s="1" t="s"/>
-      <c r="C3" s="1" t="s"/>
-      <c r="D3" s="1" t="s"/>
-      <c r="E3" s="1" t="s"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s"/>
-      <c r="B4" s="1" t="s"/>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s"/>
-      <c r="E4" s="1" t="s"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s"/>
-      <c r="B5" s="1" t="s"/>
-      <c r="C5" s="1" t="s"/>
-      <c r="D5" s="1" t="s"/>
-      <c r="E5" s="1" t="s"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s"/>
-      <c r="B6" s="1" t="s"/>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s"/>
-      <c r="E6" s="1" t="s"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s"/>
-      <c r="B7" s="1" t="s"/>
-      <c r="C7" s="1" t="s"/>
-      <c r="D7" s="1" t="s"/>
-      <c r="E7" s="1" t="s"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s"/>
-      <c r="B8" s="1" t="s"/>
-      <c r="C8" s="1" t="s"/>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s"/>
-      <c r="B9" s="1" t="s"/>
-      <c r="C9" s="1" t="s"/>
-      <c r="D9" s="1" t="s"/>
-      <c r="E9" s="1" t="s"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s"/>
-      <c r="B10" s="1" t="s"/>
-      <c r="C10" s="1" t="s"/>
-      <c r="D10" s="1" t="s"/>
-      <c r="E10" s="1" t="s"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s"/>
-      <c r="B11" s="1" t="s"/>
-      <c r="C11" s="1" t="s"/>
-      <c r="D11" s="1" t="s"/>
-      <c r="E11" s="1" t="s"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s"/>
-      <c r="B12" s="1" t="s"/>
-      <c r="C12" s="1" t="s"/>
-      <c r="D12" s="1" t="s"/>
-      <c r="E12" s="1" t="s"/>
-    </row>
+    <row r="1"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/out/DP1 Mathematics-Pure.xlsx
+++ b/out/DP1 Mathematics-Pure.xlsx
@@ -16,11 +16,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>DP1 Mathematics-Pure, [教师9]
+4:8.833333~9.500000</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics-Pure, [教师9]
+1:14.500000~15.166667</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics-Pure, [教师9]
+3:15.333333~16.000000</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics-Pure, [教师9]
+4:16.166667~16.833333</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="0"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray"/>
+    </fill>
+  </fills>
   <borders count="1">
     <border>
       <left style="none"/>
@@ -29,7 +62,10 @@
       <bottom style="none"/>
     </border>
   </borders>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -362,15 +398,123 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.5"/>
+  </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s"/>
+      <c r="B2" s="1" t="s"/>
+      <c r="C2" s="1" t="s"/>
+      <c r="D2" s="1" t="s"/>
+      <c r="E2" s="1" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s"/>
+      <c r="B3" s="1" t="s"/>
+      <c r="C3" s="1" t="s"/>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s"/>
+      <c r="B4" s="1" t="s"/>
+      <c r="C4" s="1" t="s"/>
+      <c r="D4" s="1" t="s"/>
+      <c r="E4" s="1" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s"/>
+      <c r="B5" s="1" t="s"/>
+      <c r="C5" s="1" t="s"/>
+      <c r="D5" s="1" t="s"/>
+      <c r="E5" s="1" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s"/>
+      <c r="B6" s="1" t="s"/>
+      <c r="C6" s="1" t="s"/>
+      <c r="D6" s="1" t="s"/>
+      <c r="E6" s="1" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s"/>
+      <c r="C7" s="1" t="s"/>
+      <c r="D7" s="1" t="s"/>
+      <c r="E7" s="1" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s"/>
+      <c r="B8" s="1" t="s"/>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s"/>
+      <c r="E8" s="1" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s"/>
+      <c r="B9" s="1" t="s"/>
+      <c r="C9" s="1" t="s"/>
+      <c r="D9" s="1" t="s"/>
+      <c r="E9" s="1" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s"/>
+      <c r="B10" s="1" t="s"/>
+      <c r="C10" s="1" t="s"/>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s"/>
+      <c r="B11" s="1" t="s"/>
+      <c r="C11" s="1" t="s"/>
+      <c r="D11" s="1" t="s"/>
+      <c r="E11" s="1" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s"/>
+      <c r="B12" s="1" t="s"/>
+      <c r="C12" s="1" t="s"/>
+      <c r="D12" s="1" t="s"/>
+      <c r="E12" s="1" t="s"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/out/DP1 Mathematics-Pure.xlsx
+++ b/out/DP1 Mathematics-Pure.xlsx
@@ -19,19 +19,19 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-4:8.833333~9.500000</t>
+2:8.833333~9.500000</t>
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-1:14.500000~15.166667</t>
+2:9.666667~10.333333</t>
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-3:15.333333~16.000000</t>
+2:10.500000~11.166667</t>
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-4:16.166667~16.833333</t>
+2:16.166667~16.833333</t>
   </si>
 </sst>
 </file>
@@ -439,23 +439,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s"/>
-      <c r="B3" s="1" t="s"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="1" t="s"/>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="D3" s="1" t="s"/>
       <c r="E3" s="1" t="s"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s"/>
-      <c r="B4" s="1" t="s"/>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="1" t="s"/>
       <c r="D4" s="1" t="s"/>
       <c r="E4" s="1" t="s"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s"/>
-      <c r="B5" s="1" t="s"/>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C5" s="1" t="s"/>
       <c r="D5" s="1" t="s"/>
       <c r="E5" s="1" t="s"/>
@@ -468,9 +472,7 @@
       <c r="E6" s="1" t="s"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A7" s="1" t="s"/>
       <c r="B7" s="1" t="s"/>
       <c r="C7" s="1" t="s"/>
       <c r="D7" s="1" t="s"/>
@@ -479,9 +481,7 @@
     <row r="8">
       <c r="A8" s="1" t="s"/>
       <c r="B8" s="1" t="s"/>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C8" s="1" t="s"/>
       <c r="D8" s="1" t="s"/>
       <c r="E8" s="1" t="s"/>
     </row>
@@ -494,11 +494,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s"/>
-      <c r="B10" s="1" t="s"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C10" s="1" t="s"/>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D10" s="1" t="s"/>
       <c r="E10" s="1" t="s"/>
     </row>
     <row r="11">

--- a/out/DP1 Mathematics-Pure.xlsx
+++ b/out/DP1 Mathematics-Pure.xlsx
@@ -19,11 +19,11 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-2:8.833333~9.500000</t>
+2:9.666667~10.333333</t>
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-2:9.666667~10.333333</t>
+4:9.666667~10.333333</t>
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
@@ -31,7 +31,7 @@
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-2:16.166667~16.833333</t>
+4:10.500000~11.166667</t>
   </si>
 </sst>
 </file>
@@ -439,9 +439,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s"/>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B3" s="1" t="s"/>
       <c r="C3" s="1" t="s"/>
       <c r="D3" s="1" t="s"/>
       <c r="E3" s="1" t="s"/>
@@ -449,10 +447,12 @@
     <row r="4">
       <c r="A4" s="1" t="s"/>
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s"/>
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s"/>
-      <c r="D4" s="1" t="s"/>
       <c r="E4" s="1" t="s"/>
     </row>
     <row r="5">
@@ -461,7 +461,9 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s"/>
-      <c r="D5" s="1" t="s"/>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" s="1" t="s"/>
     </row>
     <row r="6">
@@ -494,9 +496,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B10" s="1" t="s"/>
       <c r="C10" s="1" t="s"/>
       <c r="D10" s="1" t="s"/>
       <c r="E10" s="1" t="s"/>

--- a/out/DP1 Mathematics-Pure.xlsx
+++ b/out/DP1 Mathematics-Pure.xlsx
@@ -19,11 +19,11 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-2:9.666667~10.333333</t>
+5:8.000000~8.666667</t>
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-4:9.666667~10.333333</t>
+2:9.666667~10.333333</t>
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
@@ -31,7 +31,7 @@
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-4:10.500000~11.166667</t>
+3:11.333333~12.000000</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,9 @@
       <c r="B2" s="1" t="s"/>
       <c r="C2" s="1" t="s"/>
       <c r="D2" s="1" t="s"/>
-      <c r="E2" s="1" t="s"/>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s"/>
@@ -447,12 +449,10 @@
     <row r="4">
       <c r="A4" s="1" t="s"/>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s"/>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D4" s="1" t="s"/>
       <c r="E4" s="1" t="s"/>
     </row>
     <row r="5">
@@ -461,15 +461,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s"/>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D5" s="1" t="s"/>
       <c r="E5" s="1" t="s"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s"/>
       <c r="B6" s="1" t="s"/>
-      <c r="C6" s="1" t="s"/>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D6" s="1" t="s"/>
       <c r="E6" s="1" t="s"/>
     </row>

--- a/out/DP1 Mathematics-Pure.xlsx
+++ b/out/DP1 Mathematics-Pure.xlsx
@@ -16,13 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-5:8.000000~8.666667</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Pure, [教师9]
+2:9.666667~10.333333DP1 Mathematics-Pure, [教师9]
 2:9.666667~10.333333</t>
   </si>
   <si>
@@ -31,7 +28,7 @@
   </si>
   <si>
     <t>DP1 Mathematics-Pure, [教师9]
-3:11.333333~12.000000</t>
+1:14.500000~15.166667</t>
   </si>
 </sst>
 </file>
@@ -435,9 +432,7 @@
       <c r="B2" s="1" t="s"/>
       <c r="C2" s="1" t="s"/>
       <c r="D2" s="1" t="s"/>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E2" s="1" t="s"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s"/>
@@ -449,7 +444,7 @@
     <row r="4">
       <c r="A4" s="1" t="s"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s"/>
       <c r="D4" s="1" t="s"/>
@@ -458,7 +453,7 @@
     <row r="5">
       <c r="A5" s="1" t="s"/>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s"/>
       <c r="D5" s="1" t="s"/>
@@ -467,14 +462,14 @@
     <row r="6">
       <c r="A6" s="1" t="s"/>
       <c r="B6" s="1" t="s"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C6" s="1" t="s"/>
       <c r="D6" s="1" t="s"/>
       <c r="E6" s="1" t="s"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s"/>
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B7" s="1" t="s"/>
       <c r="C7" s="1" t="s"/>
       <c r="D7" s="1" t="s"/>

--- a/out/DP1 Mathematics-Pure.xlsx
+++ b/out/DP1 Mathematics-Pure.xlsx
@@ -16,41 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>DP1 Mathematics-Pure, [教师9]
-2:9.666667~10.333333DP1 Mathematics-Pure, [教师9]
-2:9.666667~10.333333</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Pure, [教师9]
-2:10.500000~11.166667</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Pure, [教师9]
-1:14.500000~15.166667</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
-    <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="0"/>
-      <charset val="0"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-  </fills>
   <borders count="1">
     <border>
       <left style="none"/>
@@ -59,10 +29,7 @@
       <bottom style="none"/>
     </border>
   </borders>
-  <cellXfs count="2">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="1">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -395,121 +362,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.5"/>
-  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s"/>
-      <c r="B2" s="1" t="s"/>
-      <c r="C2" s="1" t="s"/>
-      <c r="D2" s="1" t="s"/>
-      <c r="E2" s="1" t="s"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s"/>
-      <c r="B3" s="1" t="s"/>
-      <c r="C3" s="1" t="s"/>
-      <c r="D3" s="1" t="s"/>
-      <c r="E3" s="1" t="s"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s"/>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s"/>
-      <c r="D4" s="1" t="s"/>
-      <c r="E4" s="1" t="s"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s"/>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s"/>
-      <c r="D5" s="1" t="s"/>
-      <c r="E5" s="1" t="s"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s"/>
-      <c r="B6" s="1" t="s"/>
-      <c r="C6" s="1" t="s"/>
-      <c r="D6" s="1" t="s"/>
-      <c r="E6" s="1" t="s"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s"/>
-      <c r="C7" s="1" t="s"/>
-      <c r="D7" s="1" t="s"/>
-      <c r="E7" s="1" t="s"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s"/>
-      <c r="B8" s="1" t="s"/>
-      <c r="C8" s="1" t="s"/>
-      <c r="D8" s="1" t="s"/>
-      <c r="E8" s="1" t="s"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s"/>
-      <c r="B9" s="1" t="s"/>
-      <c r="C9" s="1" t="s"/>
-      <c r="D9" s="1" t="s"/>
-      <c r="E9" s="1" t="s"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s"/>
-      <c r="B10" s="1" t="s"/>
-      <c r="C10" s="1" t="s"/>
-      <c r="D10" s="1" t="s"/>
-      <c r="E10" s="1" t="s"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s"/>
-      <c r="B11" s="1" t="s"/>
-      <c r="C11" s="1" t="s"/>
-      <c r="D11" s="1" t="s"/>
-      <c r="E11" s="1" t="s"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s"/>
-      <c r="B12" s="1" t="s"/>
-      <c r="C12" s="1" t="s"/>
-      <c r="D12" s="1" t="s"/>
-      <c r="E12" s="1" t="s"/>
-    </row>
+    <row r="1"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
